--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63051.83197911135</v>
+        <v>-74401.48986472013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31498866.53904068</v>
+        <v>31319225.80852711</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20286438.04625941</v>
+        <v>20105717.32461388</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676707.6525510342</v>
+        <v>777595.9781162383</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="W11" t="n">
-        <v>3.304445187265792</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="X11" t="n">
-        <v>3.514245652734012</v>
+        <v>2.173080488067884</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.095347570928117</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.514245652734012</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="E12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>5.540788531754926</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>6.290631848041471</v>
       </c>
-      <c r="C14" t="n">
+      <c r="V14" t="n">
+        <v>6.290631848041471</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.290631848041471</v>
+      </c>
+      <c r="X14" t="n">
         <v>2.173080488067884</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>6.290631848041471</v>
-      </c>
       <c r="Y14" t="n">
-        <v>6.290631848041471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,73 +1685,73 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>6.290631848041471</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5.040345688132874</v>
-      </c>
-      <c r="R15" t="n">
+      <c r="V15" t="n">
         <v>6.290631848041471</v>
       </c>
-      <c r="S15" t="n">
+      <c r="W15" t="n">
         <v>6.290631848041471</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.5004428436220516</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>5.540788531754925</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.161077352217932</v>
       </c>
       <c r="T17" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.161077352217943</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="X17" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
     </row>
     <row r="18">
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9.161077352217932</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>9.161077352217943</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.161077352217939</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.161077352217939</v>
+        <v>10.40085984584235</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>10.40085984584235</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>10.40085984584235</v>
       </c>
       <c r="W20" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>9.161077352217939</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>10.40085984584235</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>10.40085984584235</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.374230932000188</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5.78684642021775</v>
+        <v>10.40085984584235</v>
       </c>
       <c r="V21" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>10.40085984584235</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>15.05805425947913</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15.05805425947913</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>15.05805425947913</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>13.26313419174921</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>15.05805425947913</v>
-      </c>
-      <c r="X23" t="n">
-        <v>15.05805425947913</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>15.05805425947913</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>13.26313419174921</v>
-      </c>
-      <c r="E24" t="n">
-        <v>15.05805425947913</v>
       </c>
       <c r="F24" t="n">
         <v>15.05805425947913</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.2631341917492</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="E26" t="n">
+      <c r="Y26" t="n">
         <v>15.05805425947913</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>13.26313419174921</v>
       </c>
     </row>
     <row r="27">
@@ -2636,64 +2636,64 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="D27" t="n">
+      <c r="H27" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="V27" t="n">
         <v>13.26313419174921</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="I29" t="n">
-        <v>9.419428874312935</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13.26313419174921</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.26313419174921</v>
+      </c>
+      <c r="G30" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
-        <v>10.93243913827303</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>15.05805425947913</v>
+        <v>13.2631341917492</v>
       </c>
       <c r="U32" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H33" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,19 +3161,19 @@
         <v>15.05805425947913</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7.762947897034459</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>15.05805425947912</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>13.26313419174921</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="W35" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="F36" t="n">
-        <v>13.26313419174921</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G36" t="n">
-        <v>15.05805425947912</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>15.05805425947912</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>15.05805425947912</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>15.05805425947913</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.419428874312935</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T38" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
     </row>
     <row r="39">
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>15.05805425947913</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V39" t="n">
-        <v>13.26313419174921</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>15.05805425947913</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,11 +3739,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3751,49 +3751,49 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>15.05805425947913</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.048734084456807</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.843705317436275</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5.370694789856127</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>15.05805425947913</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>7.762947897034466</v>
+        <v>13.26313419174921</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.05805425947913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3979,28 +3979,28 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="E44" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>13.2631341917492</v>
       </c>
       <c r="J44" t="n">
-        <v>3.021643902788004</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.536891551628976</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>10.48814958926336</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>13.2631341917492</v>
       </c>
       <c r="G45" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="H45" t="n">
-        <v>18.21830727030011</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04668504368034</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5891238419305889</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2811396522187209</v>
+        <v>3.077625506829139</v>
       </c>
       <c r="M11" t="n">
-        <v>3.760242848425392</v>
+        <v>9.305351036390196</v>
       </c>
       <c r="N11" t="n">
-        <v>7.239346044632065</v>
+        <v>15.53307656595125</v>
       </c>
       <c r="O11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="P11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="R11" t="n">
-        <v>10.71844924083874</v>
+        <v>21.76080209551231</v>
       </c>
       <c r="S11" t="n">
-        <v>10.71844924083874</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="T11" t="n">
-        <v>10.71844924083874</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="U11" t="n">
-        <v>10.71844924083874</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="V11" t="n">
-        <v>10.71844924083874</v>
+        <v>9.052454927751757</v>
       </c>
       <c r="W11" t="n">
-        <v>7.380625819358139</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="X11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.83088273578843</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.93036890292785</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="C12" t="n">
-        <v>7.380625819358139</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="D12" t="n">
-        <v>3.83088273578843</v>
+        <v>13.21159771560387</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2811396522187209</v>
+        <v>6.857424131723592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6161875539949859</v>
+        <v>6.730976077404375</v>
       </c>
       <c r="M12" t="n">
-        <v>4.095290750201658</v>
+        <v>8.036843175059282</v>
       </c>
       <c r="N12" t="n">
-        <v>7.574393946408329</v>
+        <v>14.26456870462034</v>
       </c>
       <c r="O12" t="n">
-        <v>11.053497142615</v>
+        <v>20.49229423418139</v>
       </c>
       <c r="P12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T12" t="n">
-        <v>14.05698261093605</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="U12" t="n">
-        <v>14.05698261093605</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="V12" t="n">
-        <v>14.05698261093605</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="W12" t="n">
-        <v>14.05698261093605</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="X12" t="n">
-        <v>14.05698261093605</v>
+        <v>19.56577129948414</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.05698261093605</v>
+        <v>19.56577129948414</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2811396522187209</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.698281343871483</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="C14" t="n">
         <v>0.5032505478433177</v>
@@ -5311,19 +5311,19 @@
         <v>21.76080209551231</v>
       </c>
       <c r="U14" t="n">
-        <v>21.76080209551231</v>
+        <v>15.40662851163203</v>
       </c>
       <c r="V14" t="n">
-        <v>21.76080209551231</v>
+        <v>9.052454927751757</v>
       </c>
       <c r="W14" t="n">
-        <v>21.76080209551231</v>
+        <v>2.698281343871483</v>
       </c>
       <c r="X14" t="n">
-        <v>15.40662851163203</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.052454927751757</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="15">
@@ -5363,7 +5363,7 @@
         <v>0.5032505478433177</v>
       </c>
       <c r="L15" t="n">
-        <v>6.730976077404375</v>
+        <v>1.809117645498225</v>
       </c>
       <c r="M15" t="n">
         <v>8.036843175059282</v>
@@ -5378,31 +5378,31 @@
         <v>25.16252739216588</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.0712691213246</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="R15" t="n">
-        <v>13.71709553744432</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="S15" t="n">
-        <v>7.362921953564048</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T15" t="n">
-        <v>7.362921953564048</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="U15" t="n">
-        <v>7.362921953564048</v>
+        <v>18.80835380828561</v>
       </c>
       <c r="V15" t="n">
-        <v>6.857424131723592</v>
+        <v>12.45418022440533</v>
       </c>
       <c r="W15" t="n">
-        <v>6.857424131723592</v>
+        <v>6.10000664052506</v>
       </c>
       <c r="X15" t="n">
-        <v>6.857424131723592</v>
+        <v>0.5032505478433177</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.857424131723592</v>
+        <v>0.5032505478433177</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="K17" t="n">
-        <v>1.145633237736952</v>
+        <v>1.145633237736938</v>
       </c>
       <c r="L17" t="n">
-        <v>7.531173967228717</v>
+        <v>7.5311739672287</v>
       </c>
       <c r="M17" t="n">
-        <v>17.82802521461265</v>
+        <v>17.82802521461262</v>
       </c>
       <c r="N17" t="n">
-        <v>28.12487646199658</v>
+        <v>28.12487646199653</v>
       </c>
       <c r="O17" t="n">
-        <v>38.42172770938049</v>
+        <v>38.42172770938044</v>
       </c>
       <c r="P17" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="R17" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="S17" t="n">
-        <v>41.60343938336942</v>
+        <v>32.34982589628054</v>
       </c>
       <c r="T17" t="n">
-        <v>31.09752034716502</v>
+        <v>32.34982589628054</v>
       </c>
       <c r="U17" t="n">
-        <v>31.09752034716502</v>
+        <v>32.34982589628054</v>
       </c>
       <c r="V17" t="n">
-        <v>21.84390686007619</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="W17" t="n">
-        <v>21.84390686007619</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="X17" t="n">
-        <v>11.33798782387179</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8320687876673885</v>
+        <v>21.84390686007615</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8320687876673885</v>
+        <v>11.33798782387177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="L18" t="n">
-        <v>11.12892003505132</v>
+        <v>3.575159657161802</v>
       </c>
       <c r="M18" t="n">
-        <v>13.87201090454575</v>
+        <v>13.87201090454572</v>
       </c>
       <c r="N18" t="n">
-        <v>24.16886215192968</v>
+        <v>24.16886215192963</v>
       </c>
       <c r="O18" t="n">
-        <v>34.46571339931361</v>
+        <v>34.46571339931355</v>
       </c>
       <c r="P18" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="R18" t="n">
-        <v>31.09752034716502</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="S18" t="n">
-        <v>20.59160131096062</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="T18" t="n">
-        <v>10.08568227475622</v>
+        <v>41.60343938336936</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="W18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716497</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="W19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673871</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8320687876673885</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8320687876673885</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8320687876673885</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="K20" t="n">
-        <v>1.145633237736952</v>
+        <v>1.145633237736939</v>
       </c>
       <c r="L20" t="n">
-        <v>7.531173967228717</v>
+        <v>7.53117396722871</v>
       </c>
       <c r="M20" t="n">
-        <v>17.82802521461265</v>
+        <v>17.82802521461264</v>
       </c>
       <c r="N20" t="n">
         <v>28.12487646199656</v>
       </c>
       <c r="O20" t="n">
-        <v>38.42172770938049</v>
+        <v>38.42172770938047</v>
       </c>
       <c r="P20" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="R20" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="S20" t="n">
-        <v>32.34982589628059</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="T20" t="n">
-        <v>21.84390686007619</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="U20" t="n">
-        <v>21.84390686007619</v>
+        <v>20.59160131096061</v>
       </c>
       <c r="V20" t="n">
-        <v>21.84390686007619</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="W20" t="n">
-        <v>11.33798782387179</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8320687876673885</v>
+        <v>10.08568227475621</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8320687876673885</v>
+        <v>10.08568227475621</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8320687876673885</v>
+        <v>21.84390686007617</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8320687876673885</v>
+        <v>11.33798782387178</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8320687876673885</v>
+        <v>2.918652539274434</v>
       </c>
       <c r="L21" t="n">
-        <v>11.12892003505132</v>
+        <v>13.21550378665836</v>
       </c>
       <c r="M21" t="n">
-        <v>21.42577128243525</v>
+        <v>23.51235503404228</v>
       </c>
       <c r="N21" t="n">
-        <v>31.72262252981918</v>
+        <v>33.8092062814262</v>
       </c>
       <c r="O21" t="n">
-        <v>34.46571339931361</v>
+        <v>34.46571339931358</v>
       </c>
       <c r="P21" t="n">
-        <v>41.60343938336942</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.19512531064196</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="R21" t="n">
-        <v>38.19512531064196</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="S21" t="n">
-        <v>38.19512531064196</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="T21" t="n">
-        <v>38.19512531064196</v>
+        <v>41.60343938336938</v>
       </c>
       <c r="U21" t="n">
-        <v>32.34982589628059</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="V21" t="n">
-        <v>21.84390686007619</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="W21" t="n">
-        <v>11.33798782387179</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="X21" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716499</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8320687876673885</v>
+        <v>31.09752034716499</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8320687876673885</v>
+        <v>0.8320687876673877</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C23" t="n">
         <v>1.20464434075833</v>
@@ -5992,7 +5992,7 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K23" t="n">
-        <v>3.442330717834871</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L23" t="n">
         <v>12.21491484027813</v>
@@ -6001,40 +6001,40 @@
         <v>27.12238855716247</v>
       </c>
       <c r="N23" t="n">
-        <v>42.02986227404681</v>
+        <v>42.02986227404682</v>
       </c>
       <c r="O23" t="n">
-        <v>54.87532469310608</v>
+        <v>54.87532469310609</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R23" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S23" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T23" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U23" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="V23" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="W23" t="n">
-        <v>45.02206122026082</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="X23" t="n">
-        <v>29.81190540260514</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="Y23" t="n">
-        <v>14.60174958494945</v>
+        <v>31.62495597606971</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="C24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="D24" t="n">
-        <v>46.83511179372539</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="E24" t="n">
-        <v>31.6249559760697</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="F24" t="n">
         <v>16.41480015841402</v>
@@ -6071,49 +6071,49 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K24" t="n">
-        <v>1.20464434075833</v>
+        <v>4.598115868451899</v>
       </c>
       <c r="L24" t="n">
-        <v>13.29499852785217</v>
+        <v>16.68847005554574</v>
       </c>
       <c r="M24" t="n">
-        <v>28.2024722447365</v>
+        <v>21.90820629660676</v>
       </c>
       <c r="N24" t="n">
-        <v>36.81568001349109</v>
+        <v>36.8156800134911</v>
       </c>
       <c r="O24" t="n">
-        <v>51.54902890335265</v>
+        <v>51.54902890335266</v>
       </c>
       <c r="P24" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R24" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S24" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T24" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="V24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="W24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="X24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="Y24" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026084</v>
       </c>
     </row>
     <row r="25">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6249559760697</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6249559760697</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D26" t="n">
-        <v>16.41480015841402</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E26" t="n">
         <v>1.20464434075833</v>
@@ -6253,25 +6253,25 @@
         <v>60.23221703791651</v>
       </c>
       <c r="S26" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T26" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U26" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="V26" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="W26" t="n">
-        <v>60.23221703791651</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X26" t="n">
-        <v>60.23221703791651</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.83511179372539</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>46.83511179372539</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="C27" t="n">
-        <v>31.6249559760697</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="D27" t="n">
+        <v>31.62495597606971</v>
+      </c>
+      <c r="E27" t="n">
+        <v>31.62495597606971</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31.62495597606971</v>
+      </c>
+      <c r="G27" t="n">
         <v>16.41480015841402</v>
-      </c>
-      <c r="E27" t="n">
-        <v>16.41480015841402</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.20464434075833</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.20464434075833</v>
       </c>
       <c r="H27" t="n">
         <v>1.20464434075833</v>
@@ -6308,49 +6308,49 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K27" t="n">
-        <v>4.598115868451898</v>
+        <v>4.598115868451899</v>
       </c>
       <c r="L27" t="n">
-        <v>16.68847005554573</v>
+        <v>16.68847005554574</v>
       </c>
       <c r="M27" t="n">
-        <v>31.59594377243007</v>
+        <v>31.59594377243008</v>
       </c>
       <c r="N27" t="n">
-        <v>36.81568001349109</v>
+        <v>36.8156800134911</v>
       </c>
       <c r="O27" t="n">
-        <v>51.54902890335265</v>
+        <v>51.54902890335266</v>
       </c>
       <c r="P27" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R27" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S27" t="n">
-        <v>46.83511179372539</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T27" t="n">
-        <v>46.83511179372539</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U27" t="n">
-        <v>46.83511179372539</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="V27" t="n">
-        <v>46.83511179372539</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="W27" t="n">
-        <v>46.83511179372539</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="X27" t="n">
-        <v>46.83511179372539</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="Y27" t="n">
-        <v>46.83511179372539</v>
+        <v>31.62495597606971</v>
       </c>
     </row>
     <row r="28">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25.92937477893213</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="C29" t="n">
-        <v>10.71921896127645</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D29" t="n">
-        <v>10.71921896127645</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E29" t="n">
-        <v>10.71921896127645</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F29" t="n">
-        <v>10.71921896127645</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G29" t="n">
-        <v>10.71921896127645</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="H29" t="n">
-        <v>10.71921896127645</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I29" t="n">
         <v>1.20464434075833</v>
@@ -6475,40 +6475,40 @@
         <v>27.12238855716247</v>
       </c>
       <c r="N29" t="n">
-        <v>42.02986227404681</v>
+        <v>42.02986227404682</v>
       </c>
       <c r="O29" t="n">
-        <v>54.87532469310607</v>
+        <v>54.87532469310609</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.34968641424351</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R29" t="n">
-        <v>41.13953059658782</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S29" t="n">
-        <v>41.13953059658782</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="T29" t="n">
-        <v>41.13953059658782</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="U29" t="n">
-        <v>41.13953059658782</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="V29" t="n">
-        <v>41.13953059658782</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="W29" t="n">
-        <v>25.92937477893213</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="X29" t="n">
-        <v>25.92937477893213</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="Y29" t="n">
-        <v>25.92937477893213</v>
+        <v>31.62495597606971</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.45766797485142</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="C30" t="n">
-        <v>12.24751215719574</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="D30" t="n">
-        <v>12.24751215719574</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="E30" t="n">
-        <v>12.24751215719574</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="F30" t="n">
-        <v>12.24751215719574</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="G30" t="n">
-        <v>12.24751215719574</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="H30" t="n">
         <v>1.20464434075833</v>
@@ -6545,49 +6545,49 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K30" t="n">
-        <v>4.598115868451898</v>
+        <v>4.598115868451899</v>
       </c>
       <c r="L30" t="n">
-        <v>16.68847005554573</v>
+        <v>16.68847005554574</v>
       </c>
       <c r="M30" t="n">
-        <v>30.59139443117062</v>
+        <v>31.59594377243008</v>
       </c>
       <c r="N30" t="n">
-        <v>45.49886814805495</v>
+        <v>36.8156800134911</v>
       </c>
       <c r="O30" t="n">
-        <v>60.23221703791651</v>
+        <v>51.54902890335266</v>
       </c>
       <c r="P30" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.87797961016279</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R30" t="n">
-        <v>57.87797961016279</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S30" t="n">
-        <v>57.87797961016279</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T30" t="n">
-        <v>57.87797961016279</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U30" t="n">
-        <v>57.87797961016279</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="V30" t="n">
-        <v>57.87797961016279</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="W30" t="n">
-        <v>42.66782379250711</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="X30" t="n">
-        <v>27.45766797485142</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.45766797485142</v>
+        <v>45.02206122026084</v>
       </c>
     </row>
     <row r="31">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="C32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="D32" t="n">
-        <v>1.20464434075833</v>
+        <v>31.62495597606971</v>
       </c>
       <c r="E32" t="n">
-        <v>1.20464434075833</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F32" t="n">
         <v>1.20464434075833</v>
@@ -6724,28 +6724,28 @@
         <v>60.23221703791651</v>
       </c>
       <c r="R32" t="n">
-        <v>45.02206122026082</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S32" t="n">
-        <v>31.6249559760697</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T32" t="n">
-        <v>16.41480015841402</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="U32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="V32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="W32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="X32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.20464434075833</v>
+        <v>46.8351117937254</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="C33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="D33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="E33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="F33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G33" t="n">
-        <v>21.97054389044912</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H33" t="n">
-        <v>6.760388072793432</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I33" t="n">
-        <v>6.760388072793432</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J33" t="n">
         <v>1.20464434075833</v>
       </c>
       <c r="K33" t="n">
-        <v>4.598115868451898</v>
+        <v>4.598115868451899</v>
       </c>
       <c r="L33" t="n">
-        <v>16.68847005554573</v>
+        <v>16.68847005554574</v>
       </c>
       <c r="M33" t="n">
-        <v>31.59594377243007</v>
+        <v>31.59594377243008</v>
       </c>
       <c r="N33" t="n">
-        <v>36.81568001349109</v>
+        <v>36.8156800134911</v>
       </c>
       <c r="O33" t="n">
-        <v>51.54902890335265</v>
+        <v>51.54902890335266</v>
       </c>
       <c r="P33" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="R33" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S33" t="n">
-        <v>45.02206122026082</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="T33" t="n">
-        <v>29.81190540260514</v>
+        <v>45.02206122026084</v>
       </c>
       <c r="U33" t="n">
-        <v>29.81190540260514</v>
+        <v>29.81190540260515</v>
       </c>
       <c r="V33" t="n">
-        <v>29.81190540260514</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="W33" t="n">
-        <v>29.81190540260514</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="X33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.97054389044912</v>
+        <v>16.41480015841402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.41480015841401</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C35" t="n">
         <v>1.20464434075833</v>
@@ -6940,49 +6940,49 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K35" t="n">
-        <v>3.44233071783488</v>
+        <v>3.442330717834869</v>
       </c>
       <c r="L35" t="n">
-        <v>12.21491484027814</v>
+        <v>12.21491484027812</v>
       </c>
       <c r="M35" t="n">
-        <v>27.12238855716245</v>
+        <v>27.12238855716247</v>
       </c>
       <c r="N35" t="n">
-        <v>42.02986227404679</v>
+        <v>42.02986227404681</v>
       </c>
       <c r="O35" t="n">
-        <v>54.87532469310606</v>
+        <v>54.87532469310608</v>
       </c>
       <c r="P35" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R35" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S35" t="n">
-        <v>46.83511179372537</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T35" t="n">
-        <v>46.83511179372537</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U35" t="n">
-        <v>46.83511179372537</v>
+        <v>29.81190540260514</v>
       </c>
       <c r="V35" t="n">
-        <v>46.83511179372537</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="W35" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="X35" t="n">
-        <v>31.62495597606969</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.41480015841401</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="C36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="D36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="E36" t="n">
-        <v>29.81190540260513</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F36" t="n">
-        <v>16.41480015841401</v>
+        <v>16.41480015841402</v>
       </c>
       <c r="G36" t="n">
         <v>1.20464434075833</v>
@@ -7025,43 +7025,43 @@
         <v>16.68847005554573</v>
       </c>
       <c r="M36" t="n">
-        <v>31.59594377243006</v>
+        <v>31.59594377243007</v>
       </c>
       <c r="N36" t="n">
-        <v>46.5034174893144</v>
+        <v>36.81568001349109</v>
       </c>
       <c r="O36" t="n">
-        <v>51.54902890335264</v>
+        <v>51.54902890335265</v>
       </c>
       <c r="P36" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R36" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S36" t="n">
+        <v>60.23221703791651</v>
+      </c>
+      <c r="T36" t="n">
+        <v>60.23221703791651</v>
+      </c>
+      <c r="U36" t="n">
         <v>45.02206122026082</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>45.02206122026082</v>
       </c>
-      <c r="U36" t="n">
-        <v>29.81190540260513</v>
-      </c>
-      <c r="V36" t="n">
-        <v>29.81190540260513</v>
-      </c>
       <c r="W36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="X36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.81190540260513</v>
+        <v>45.02206122026082</v>
       </c>
     </row>
     <row r="37">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.13953059658782</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C38" t="n">
-        <v>25.92937477893213</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D38" t="n">
-        <v>25.92937477893213</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E38" t="n">
-        <v>25.92937477893213</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F38" t="n">
-        <v>25.92937477893213</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G38" t="n">
-        <v>25.92937477893213</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H38" t="n">
-        <v>10.71921896127645</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I38" t="n">
         <v>1.20464434075833</v>
@@ -7177,49 +7177,49 @@
         <v>1.20464434075833</v>
       </c>
       <c r="K38" t="n">
-        <v>3.442330717834869</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L38" t="n">
-        <v>12.21491484027812</v>
+        <v>12.21491484027813</v>
       </c>
       <c r="M38" t="n">
-        <v>27.12238855716247</v>
+        <v>27.12238855716246</v>
       </c>
       <c r="N38" t="n">
-        <v>42.02986227404681</v>
+        <v>42.02986227404679</v>
       </c>
       <c r="O38" t="n">
         <v>54.87532469310607</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23221703791651</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.34968641424351</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R38" t="n">
-        <v>56.34968641424351</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S38" t="n">
-        <v>56.34968641424351</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T38" t="n">
-        <v>41.13953059658782</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="U38" t="n">
-        <v>41.13953059658782</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="V38" t="n">
-        <v>41.13953059658782</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="W38" t="n">
-        <v>41.13953059658782</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="X38" t="n">
-        <v>41.13953059658782</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.13953059658782</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="C39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="D39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="E39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F39" t="n">
-        <v>16.41480015841402</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G39" t="n">
-        <v>16.41480015841402</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H39" t="n">
         <v>1.20464434075833</v>
@@ -7259,25 +7259,25 @@
         <v>4.598115868451898</v>
       </c>
       <c r="L39" t="n">
-        <v>7.000732579722417</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M39" t="n">
-        <v>21.90820629660675</v>
+        <v>31.59594377243006</v>
       </c>
       <c r="N39" t="n">
-        <v>36.81568001349109</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O39" t="n">
-        <v>51.54902890335265</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P39" t="n">
-        <v>60.23221703791651</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.23221703791651</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="R39" t="n">
-        <v>60.23221703791651</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="S39" t="n">
         <v>45.02206122026082</v>
@@ -7286,19 +7286,19 @@
         <v>45.02206122026082</v>
       </c>
       <c r="U39" t="n">
-        <v>45.02206122026082</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="V39" t="n">
-        <v>31.6249559760697</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="W39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="X39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.41480015841402</v>
+        <v>14.60174958494945</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20.50443054675423</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="C41" t="n">
-        <v>20.50443054675423</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="D41" t="n">
-        <v>20.50443054675423</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="E41" t="n">
-        <v>20.50443054675423</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="F41" t="n">
-        <v>20.50443054675423</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G41" t="n">
-        <v>5.294274729098539</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H41" t="n">
-        <v>5.294274729098539</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I41" t="n">
-        <v>5.294274729098539</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J41" t="n">
         <v>1.20464434075833</v>
       </c>
       <c r="K41" t="n">
-        <v>3.442330717834869</v>
+        <v>3.442330717834865</v>
       </c>
       <c r="L41" t="n">
-        <v>12.21491484027812</v>
+        <v>12.21491484027811</v>
       </c>
       <c r="M41" t="n">
-        <v>27.12238855716247</v>
+        <v>27.12238855716245</v>
       </c>
       <c r="N41" t="n">
-        <v>42.02986227404681</v>
+        <v>42.0298622740468</v>
       </c>
       <c r="O41" t="n">
-        <v>54.87532469310608</v>
+        <v>54.87532469310607</v>
       </c>
       <c r="P41" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.34968641424351</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="R41" t="n">
-        <v>56.34968641424351</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S41" t="n">
-        <v>50.9247421820656</v>
+        <v>45.02206122026082</v>
       </c>
       <c r="T41" t="n">
-        <v>50.9247421820656</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="U41" t="n">
-        <v>50.9247421820656</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="V41" t="n">
-        <v>50.9247421820656</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="W41" t="n">
-        <v>50.9247421820656</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="X41" t="n">
-        <v>35.71458636440991</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.71458636440991</v>
+        <v>31.6249559760697</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37.1806997081048</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="C42" t="n">
-        <v>21.97054389044912</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="D42" t="n">
-        <v>6.760388072793432</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="E42" t="n">
-        <v>6.760388072793432</v>
+        <v>31.6249559760697</v>
       </c>
       <c r="F42" t="n">
-        <v>6.760388072793432</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G42" t="n">
-        <v>6.760388072793432</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H42" t="n">
-        <v>6.760388072793432</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I42" t="n">
-        <v>6.760388072793432</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J42" t="n">
         <v>1.20464434075833</v>
@@ -7499,13 +7499,13 @@
         <v>16.68847005554573</v>
       </c>
       <c r="M42" t="n">
-        <v>31.59594377243007</v>
+        <v>21.90820629660674</v>
       </c>
       <c r="N42" t="n">
-        <v>36.81568001349109</v>
+        <v>36.81568001349108</v>
       </c>
       <c r="O42" t="n">
-        <v>51.54902890335265</v>
+        <v>51.54902890335264</v>
       </c>
       <c r="P42" t="n">
         <v>60.23221703791651</v>
@@ -7523,19 +7523,19 @@
         <v>60.23221703791651</v>
       </c>
       <c r="U42" t="n">
-        <v>52.39085552576049</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="V42" t="n">
-        <v>52.39085552576049</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="W42" t="n">
-        <v>52.39085552576049</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="X42" t="n">
-        <v>52.39085552576049</v>
+        <v>46.83511179372538</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.1806997081048</v>
+        <v>46.83511179372538</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y43" t="n">
-        <v>60.23221703791651</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>59.71662186817789</v>
+        <v>45.02206122026081</v>
       </c>
       <c r="C44" t="n">
-        <v>59.71662186817789</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="D44" t="n">
-        <v>59.71662186817789</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="E44" t="n">
-        <v>41.31429129211717</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="F44" t="n">
-        <v>22.91196071605645</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="G44" t="n">
-        <v>4.50963013999573</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="H44" t="n">
-        <v>4.50963013999573</v>
+        <v>14.60174958494945</v>
       </c>
       <c r="I44" t="n">
-        <v>4.50963013999573</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J44" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K44" t="n">
-        <v>5.219099475992266</v>
+        <v>3.442330717834885</v>
       </c>
       <c r="L44" t="n">
-        <v>15.88227649088182</v>
+        <v>12.21491484027814</v>
       </c>
       <c r="M44" t="n">
-        <v>32.89339907886391</v>
+        <v>27.12238855716245</v>
       </c>
       <c r="N44" t="n">
-        <v>50.92952327646102</v>
+        <v>42.02986227404678</v>
       </c>
       <c r="O44" t="n">
-        <v>65.79354395927301</v>
+        <v>54.87532469310606</v>
       </c>
       <c r="P44" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="R44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="S44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="T44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="U44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="V44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="W44" t="n">
-        <v>70.3107123623833</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="X44" t="n">
-        <v>59.71662186817789</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="Y44" t="n">
-        <v>59.71662186817789</v>
+        <v>45.02206122026081</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="C45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="D45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="E45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="F45" t="n">
-        <v>38.26212573374545</v>
+        <v>16.41480015841401</v>
       </c>
       <c r="G45" t="n">
-        <v>19.85979515768473</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J45" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K45" t="n">
-        <v>5.886021080118652</v>
+        <v>4.598115868451898</v>
       </c>
       <c r="L45" t="n">
-        <v>19.36817474787378</v>
+        <v>16.68847005554573</v>
       </c>
       <c r="M45" t="n">
-        <v>28.67140894156423</v>
+        <v>21.90820629660673</v>
       </c>
       <c r="N45" t="n">
-        <v>46.70753313916134</v>
+        <v>36.81568001349106</v>
       </c>
       <c r="O45" t="n">
-        <v>62.96599962173947</v>
+        <v>51.54902890335263</v>
       </c>
       <c r="P45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="R45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="S45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="T45" t="n">
-        <v>72.87322908120045</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="U45" t="n">
-        <v>72.87322908120045</v>
+        <v>45.02206122026081</v>
       </c>
       <c r="V45" t="n">
-        <v>56.66445630980617</v>
+        <v>45.02206122026081</v>
       </c>
       <c r="W45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="X45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
       <c r="Y45" t="n">
-        <v>38.26212573374545</v>
+        <v>29.81190540260513</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="C46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="D46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="E46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="F46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="G46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="H46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="I46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="J46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="K46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="L46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="M46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="N46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="O46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="P46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="R46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="S46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="T46" t="n">
-        <v>2.052539169432685</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="U46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="V46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="W46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="X46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.457464581624009</v>
+        <v>1.20464434075833</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>9.188120483615116</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q2" t="n">
         <v>13.562754156455</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q3" t="n">
         <v>8.477581017613943</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.32359484578712</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R6" t="n">
         <v>16.73234637554063</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.01088610452265</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>7.884701260890999</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>16.77194961588923</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.687419793854</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>9.188120483615116</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>5.341568553442613</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.7452579786414901</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.188868639101635</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7.531191812490523</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>13.562754156455</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.90854914031357</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>12.32359484578712</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.04973517299579</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>4.348154656593753</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.424509749335602</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>8.477581017613943</v>
       </c>
       <c r="R9" t="n">
         <v>16.73234637554063</v>
@@ -8613,22 +8613,22 @@
         <v>14.01088610452265</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.07631485409216</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.985433933586291</v>
       </c>
       <c r="M10" t="n">
         <v>7.884701260890999</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.40747527422576</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>9.252559636191176</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>11.04602209616816</v>
       </c>
       <c r="Q10" t="n">
         <v>16.77194961588923</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7.415995117306384</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.786362146091513</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.2941343268911112</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8.128025379424045</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.505703897832523</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>5.040345688132874</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.41484263875958</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7.453525154664103</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.629166113207063</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.345987427773778</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.952904146645743</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>6.061704061331429</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>8.315693914541322</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.345527720946972</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>5.493675111542547</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>17.21482607605936</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.94710714058962</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.272547700682507</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3.374230932000192</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.25010943862652</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>11.64120006999823</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>6.182192760582831</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.002298353206662</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2.630683478545034</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.278386291436817</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4.515015793477314</v>
       </c>
       <c r="P19" t="n">
-        <v>6.992234902737154</v>
+        <v>6.992234902737158</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.96531748730437</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.345527720946972</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>5.493675111542547</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>17.21482607605936</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.94710714058962</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.272547700682507</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3.374230932000192</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.25010943862652</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>11.64120006999823</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>6.182192760582831</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.002298353206662</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.630683478545034</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.278386291436817</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.515015793477314</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>6.992234902737158</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>13.96531748730437</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q25" t="n">
         <v>13.39141578060923</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R30" t="n">
         <v>13.7425402420767</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>11.15664534489041</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.66564216510812</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.048734084456807</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>3.843705317436275</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>16.25505095986412</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.66564216510812</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5.50018629471475</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2.330695053476184</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>13.7425402420767</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>11.15664534489041</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.385920497900839</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.98334400391861</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.55633898516275</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.2295873088291529</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.546280180004732</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6.163314231162726</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.39141578060923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22576,19 +22576,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.341568553442613</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.188868639101635</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.531191812490523</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -22807,31 +22807,31 @@
         <v>26.49318908467228</v>
       </c>
       <c r="J5" t="n">
-        <v>11.687419793854</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615119</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5.341568553442613</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.188868639101635</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490526</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.562754156455</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.90854914031357</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>98.56266449137924</v>
@@ -22883,13 +22883,13 @@
         <v>51.76270940428461</v>
       </c>
       <c r="I6" t="n">
-        <v>12.32359484578712</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.04973517299579</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.348154656593753</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22904,10 +22904,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613941</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -22965,28 +22965,28 @@
         <v>95.95252362624773</v>
       </c>
       <c r="J7" t="n">
-        <v>14.01088610452265</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409217</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.985433933586291</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.884701260890999</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.40747527422576</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>9.252559636191176</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>11.04602209616816</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.77194961588923</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>42.35432047744712</v>
@@ -23044,31 +23044,31 @@
         <v>26.49318908467228</v>
       </c>
       <c r="J8" t="n">
-        <v>11.687419793854</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9.188120483615116</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>5.341568553442613</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.188868639101635</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>7.531191812490523</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.562754156455</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.90854914031357</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>98.56266449137924</v>
@@ -23123,10 +23123,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.04973517299579</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4.348154656593753</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.424509749335602</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.477581017613943</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -23205,22 +23205,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>10.07631485409216</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.985433933586291</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.40747527422576</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>9.252559636191176</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11.04602209616816</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -23269,22 +23269,22 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>417.3586943397597</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0528947167082</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H11" t="n">
-        <v>292.4033540752549</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I11" t="n">
-        <v>25.18823956290306</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J11" t="n">
-        <v>8.81455916294134</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.882447110169775</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,31 +23299,31 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.663715710621226</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.907482314967268</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.78230478788932</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.79133870894448</v>
+        <v>91.12521057153313</v>
       </c>
       <c r="T11" t="n">
-        <v>217.6535586230366</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7519381439728</v>
+        <v>255.7506198904062</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>347.6238888769715</v>
       </c>
       <c r="W11" t="n">
-        <v>389.1229910153908</v>
+        <v>386.1368043546151</v>
       </c>
       <c r="X11" t="n">
-        <v>404.0885531911962</v>
+        <v>405.4297183558623</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23336,34 +23336,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.542391754934</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>112.8165987949363</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>99.2873132471338</v>
+        <v>96.51092705182634</v>
       </c>
       <c r="E12" t="n">
-        <v>100.1406687370581</v>
+        <v>97.36428254175067</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>86.41874016588341</v>
       </c>
       <c r="G12" t="n">
-        <v>92.98333688051382</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H12" t="n">
-        <v>51.5877989750671</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I12" t="n">
-        <v>11.70004949185546</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8.338679062289817</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.423687230389685</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.165776688846169</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.6078994927054</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>78.0982217429259</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T12" t="n">
-        <v>139.9375595376252</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9119682521874</v>
+        <v>177.3705996810905</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23430,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.485498573125</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3900730432698</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I13" t="n">
-        <v>95.49591940516507</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J13" t="n">
-        <v>12.93742448802936</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.312287663815166</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>5.72808646333668</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.504644856982839</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.084011291914905</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>7.106464584984073</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.209667030483869</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.50055255410195</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.6716226305684</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S13" t="n">
-        <v>166.535841987722</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T13" t="n">
-        <v>240.440648162495</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3766639363941</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>409.3592488005733</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>420.4586421987649</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23518,10 +23518,10 @@
         <v>24.55296493005908</v>
       </c>
       <c r="J14" t="n">
-        <v>7.415995117306384</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.786362146091513</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,13 +23536,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2941343268911112</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.128025379424045</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>18.74720796782874</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>97.4158424195746</v>
@@ -23551,19 +23551,19 @@
         <v>217.5814254356876</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7506198904062</v>
+        <v>249.4599880423647</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>347.6238888769715</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>386.1368043546151</v>
       </c>
       <c r="X14" t="n">
-        <v>401.3121669958887</v>
+        <v>405.4297183558623</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.9932654966171</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.3471074778206</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
         <v>116.3308444476703</v>
@@ -23594,10 +23594,10 @@
         <v>51.50264919965579</v>
       </c>
       <c r="I15" t="n">
-        <v>11.39649556952178</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.505703897832523</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.769865182937103</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.64382545398212</v>
+        <v>77.93445730202359</v>
       </c>
       <c r="T15" t="n">
         <v>139.902022460603</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9113882128454</v>
+        <v>176.6207563648039</v>
       </c>
       <c r="V15" t="n">
-        <v>202.4229646285044</v>
+        <v>196.6327756240849</v>
       </c>
       <c r="W15" t="n">
-        <v>194.556163395115</v>
+        <v>188.2655315470735</v>
       </c>
       <c r="X15" t="n">
-        <v>161.8425727710037</v>
+        <v>156.3017842392488</v>
       </c>
       <c r="Y15" t="n">
         <v>138.2959597602405</v>
@@ -23676,28 +23676,28 @@
         <v>95.27363565084021</v>
       </c>
       <c r="J16" t="n">
-        <v>12.41484263875958</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.453525154664103</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.629166113207063</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4.345987427773778</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.952904146645743</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6.061704061331429</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>8.315693914541322</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.881611906857</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>41.33927213211291</v>
@@ -23752,10 +23752,10 @@
         <v>291.9847650738814</v>
       </c>
       <c r="I17" t="n">
-        <v>23.61248929067533</v>
+        <v>23.61248929067534</v>
       </c>
       <c r="J17" t="n">
-        <v>5.345527720946968</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.49367511154254</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>17.21482607605935</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.85994880353266</v>
+        <v>87.69887145131473</v>
       </c>
       <c r="T17" t="n">
-        <v>207.0737779078168</v>
+        <v>217.4746377536591</v>
       </c>
       <c r="U17" t="n">
         <v>255.7486683165484</v>
       </c>
       <c r="V17" t="n">
-        <v>344.7534433727951</v>
+        <v>343.5136608791707</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>382.0265763568142</v>
       </c>
       <c r="X17" t="n">
-        <v>397.2019389980878</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>390.8830374988162</v>
@@ -23819,22 +23819,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>94.49383703757421</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>82.30851216808254</v>
       </c>
       <c r="G18" t="n">
-        <v>92.96146798164902</v>
+        <v>82.56060813580669</v>
       </c>
       <c r="H18" t="n">
         <v>51.3765914518203</v>
       </c>
       <c r="I18" t="n">
-        <v>10.94710714058962</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.272547700682503</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.374230932000188</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.849249592784162</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>67.29115669229238</v>
+        <v>77.69201653813472</v>
       </c>
       <c r="T18" t="n">
-        <v>129.4485526827621</v>
+        <v>139.8494125286044</v>
       </c>
       <c r="U18" t="n">
-        <v>173.7494521566231</v>
+        <v>172.5096696629987</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23907,34 +23907,34 @@
         <v>164.4671644229407</v>
       </c>
       <c r="H19" t="n">
-        <v>141.2270657807219</v>
+        <v>141.227065780722</v>
       </c>
       <c r="I19" t="n">
         <v>94.94456150689491</v>
       </c>
       <c r="J19" t="n">
-        <v>11.64120006999822</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6.182192760582829</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.002298353206658</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.630683478545031</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.278386291436814</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>4.515015793477311</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.96531748730437</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>40.84725256864452</v>
@@ -23977,7 +23977,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>412.5560931014031</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -23989,10 +23989,10 @@
         <v>291.9847650738814</v>
       </c>
       <c r="I20" t="n">
-        <v>23.61248929067533</v>
+        <v>23.61248929067534</v>
       </c>
       <c r="J20" t="n">
-        <v>5.345527720946968</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.49367511154254</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>17.21482607605935</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.69887145131472</v>
+        <v>86.45908895769031</v>
       </c>
       <c r="T20" t="n">
-        <v>207.0737779078168</v>
+        <v>217.4746377536591</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7486683165484</v>
+        <v>245.3478084707061</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>343.5136608791707</v>
       </c>
       <c r="W20" t="n">
-        <v>382.0265763568142</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>397.2019389980878</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24053,13 +24053,13 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>93.64048154764987</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>93.25405454394979</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>82.30851216808253</v>
       </c>
       <c r="G21" t="n">
         <v>92.96146798164902</v>
@@ -24068,10 +24068,10 @@
         <v>51.3765914518203</v>
       </c>
       <c r="I21" t="n">
-        <v>10.94710714058962</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.272547700682503</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.25010943862652</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>77.69201653813472</v>
@@ -24104,16 +24104,16 @@
         <v>139.8494125286044</v>
       </c>
       <c r="U21" t="n">
-        <v>177.1236830886233</v>
+        <v>172.5096696629987</v>
       </c>
       <c r="V21" t="n">
-        <v>192.5225476262841</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>184.1553035492726</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>151.4417129251614</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
         <v>138.2959597602405</v>
@@ -24144,34 +24144,34 @@
         <v>164.4671644229407</v>
       </c>
       <c r="H22" t="n">
-        <v>141.2270657807219</v>
+        <v>141.227065780722</v>
       </c>
       <c r="I22" t="n">
         <v>94.94456150689491</v>
       </c>
       <c r="J22" t="n">
-        <v>11.64120006999822</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.182192760582829</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.002298353206658</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2.630683478545031</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.278386291436814</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4.515015793477311</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6.992234902737154</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.96531748730437</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>40.84725256864452</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>402.3867464568655</v>
+        <v>400.5918263891356</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24229,7 +24229,7 @@
         <v>23.02344218634936</v>
       </c>
       <c r="J23" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>96.51177654778198</v>
@@ -24262,19 +24262,19 @@
         <v>217.4077535386488</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2258430851794</v>
+        <v>388.0207631529094</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D24" t="n">
-        <v>89.5384247081186</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E24" t="n">
-        <v>88.59686013031302</v>
+        <v>90.39178019804292</v>
       </c>
       <c r="F24" t="n">
-        <v>77.65131775444576</v>
+        <v>77.65131775444574</v>
       </c>
       <c r="G24" t="n">
-        <v>77.89523868848713</v>
+        <v>77.89523868848711</v>
       </c>
       <c r="H24" t="n">
         <v>51.29763783704193</v>
       </c>
       <c r="I24" t="n">
-        <v>10.66564216510812</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>77.54016887301827</v>
@@ -24341,7 +24341,7 @@
         <v>139.8164614059971</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24387,25 +24387,25 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J25" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>400.5918263891356</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>409.3685884950837</v>
       </c>
       <c r="D26" t="n">
-        <v>404.0016403473705</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>406.6591161941419</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24466,7 +24466,7 @@
         <v>23.02344218634936</v>
       </c>
       <c r="J26" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.51177654778198</v>
+        <v>81.45372228830284</v>
       </c>
       <c r="T26" t="n">
         <v>217.4077535386488</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>392.5447445844511</v>
       </c>
       <c r="Y26" t="n">
-        <v>388.0207631529094</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="27">
@@ -24524,28 +24524,28 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C27" t="n">
-        <v>101.2727901881911</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D27" t="n">
-        <v>87.74350464038869</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E27" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F27" t="n">
-        <v>77.65131775444576</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848711</v>
       </c>
       <c r="H27" t="n">
-        <v>51.29763783704193</v>
+        <v>36.2395835775628</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>64.27703468126906</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T27" t="n">
         <v>139.8164614059971</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V27" t="n">
-        <v>202.9234074721264</v>
+        <v>189.6602732803772</v>
       </c>
       <c r="W27" t="n">
         <v>194.556163395115</v>
@@ -24624,28 +24624,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J28" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>40.53908648012926</v>
@@ -24697,13 +24697,13 @@
         <v>399.9967427842381</v>
       </c>
       <c r="H29" t="n">
-        <v>291.8282880968454</v>
+        <v>276.7702338373663</v>
       </c>
       <c r="I29" t="n">
-        <v>13.60401331203642</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J29" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.196996700384993</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.51177654778198</v>
+        <v>83.24864235603276</v>
       </c>
       <c r="T29" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24761,7 +24761,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C30" t="n">
-        <v>101.2727901881911</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D30" t="n">
         <v>102.8015588998678</v>
@@ -24770,19 +24770,19 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F30" t="n">
-        <v>92.70937201392488</v>
+        <v>79.44623782217566</v>
       </c>
       <c r="G30" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848711</v>
       </c>
       <c r="H30" t="n">
-        <v>40.36519869876889</v>
+        <v>36.2395835775628</v>
       </c>
       <c r="I30" t="n">
-        <v>10.66564216510812</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>139.8164614059971</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W30" t="n">
-        <v>179.4981091356358</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X30" t="n">
-        <v>146.7845185115246</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y30" t="n">
         <v>138.2959597602405</v>
@@ -24861,28 +24861,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J31" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>40.53908648012926</v>
@@ -24922,13 +24922,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>404.0016403473705</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>406.6591161941419</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G32" t="n">
         <v>399.9967427842381</v>
@@ -24940,7 +24940,7 @@
         <v>23.02344218634936</v>
       </c>
       <c r="J32" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.196996700384993</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.24864235603278</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T32" t="n">
-        <v>202.3496992791696</v>
+        <v>204.1446193468996</v>
       </c>
       <c r="U32" t="n">
-        <v>240.6893917298961</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25010,10 +25010,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848711</v>
       </c>
       <c r="H33" t="n">
-        <v>36.2395835775628</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.48211461353915</v>
+        <v>62.48211461353914</v>
       </c>
       <c r="T33" t="n">
-        <v>124.758407146518</v>
+        <v>139.8164614059971</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V33" t="n">
-        <v>202.9234074721264</v>
+        <v>189.6602732803772</v>
       </c>
       <c r="W33" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X33" t="n">
-        <v>154.0796248739693</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y33" t="n">
         <v>138.2959597602405</v>
@@ -25101,25 +25101,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>40.53908648012926</v>
@@ -25156,7 +25156,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>407.5736684273537</v>
+        <v>409.3685884950837</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25177,7 +25177,7 @@
         <v>23.02344218634936</v>
       </c>
       <c r="J35" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.843705317436275</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.24864235603276</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T35" t="n">
         <v>217.4077535386488</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>338.8564664655339</v>
       </c>
       <c r="W35" t="n">
-        <v>377.3693819431774</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2258430851794</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25241,10 +25241,10 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E36" t="n">
-        <v>103.6549143897921</v>
+        <v>90.39178019804294</v>
       </c>
       <c r="F36" t="n">
-        <v>79.44623782217566</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G36" t="n">
         <v>77.89523868848713</v>
@@ -25256,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,13 +25277,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.48211461353915</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T36" t="n">
         <v>139.8164614059971</v>
@@ -25335,28 +25335,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J37" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>40.53908648012926</v>
@@ -25393,7 +25393,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>407.5736684273537</v>
+        <v>409.3685884950837</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25408,13 +25408,13 @@
         <v>399.9967427842381</v>
       </c>
       <c r="H38" t="n">
-        <v>276.7702338373663</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I38" t="n">
-        <v>13.60401331203642</v>
+        <v>23.02344218634936</v>
       </c>
       <c r="J38" t="n">
-        <v>4.048734084456807</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>96.51177654778198</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T38" t="n">
-        <v>202.3496992791696</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7474459893752</v>
+        <v>240.6893917298961</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="39">
@@ -25481,19 +25481,19 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F39" t="n">
-        <v>92.70937201392488</v>
+        <v>79.44623782217568</v>
       </c>
       <c r="G39" t="n">
         <v>92.95329294796625</v>
       </c>
       <c r="H39" t="n">
-        <v>36.2395835775628</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I39" t="n">
-        <v>10.66564216510812</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.50018629471475</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>62.48211461353915</v>
@@ -25526,10 +25526,10 @@
         <v>139.8164614059971</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9099916776777</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V39" t="n">
-        <v>189.6602732803772</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W39" t="n">
         <v>179.4981091356358</v>
@@ -25572,28 +25572,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J40" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>40.53908648012926</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>400.5918263891356</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,10 +25639,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>405.8148857330146</v>
       </c>
       <c r="G41" t="n">
-        <v>384.938688524759</v>
+        <v>399.9967427842381</v>
       </c>
       <c r="H41" t="n">
         <v>291.8282880968454</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>16.25505095986412</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.14108175792585</v>
+        <v>81.45372228830286</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4077535386488</v>
+        <v>204.1446193468996</v>
       </c>
       <c r="U41" t="n">
         <v>255.7474459893752</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>392.5447445844511</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25709,7 +25709,7 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C42" t="n">
-        <v>101.2727901881911</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D42" t="n">
         <v>87.74350464038869</v>
@@ -25718,10 +25718,10 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392488</v>
+        <v>77.65131775444576</v>
       </c>
       <c r="G42" t="n">
-        <v>92.95329294796625</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H42" t="n">
         <v>51.29763783704193</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.330695053476184</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.7425402420767</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>77.54016887301827</v>
@@ -25763,7 +25763,7 @@
         <v>139.8164614059971</v>
       </c>
       <c r="U42" t="n">
-        <v>175.1470437806432</v>
+        <v>169.6468574859285</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25775,7 +25775,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.2379055007614</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="43">
@@ -25809,28 +25809,28 @@
         <v>94.73845284923044</v>
       </c>
       <c r="J43" t="n">
-        <v>11.15664534489041</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.385920497900839</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.98334400391861</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.55633898516275</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.2295873088291529</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3.546280180004732</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>6.163314231162726</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.39141578060923</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>40.53908648012926</v>
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>407.5736684273537</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>404.0016403473705</v>
       </c>
       <c r="E44" t="n">
-        <v>403.4988631833209</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>402.6546327221936</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>381.7663341259155</v>
+        <v>399.9967427842381</v>
       </c>
       <c r="H44" t="n">
-        <v>291.7043547567607</v>
+        <v>291.8282880968454</v>
       </c>
       <c r="I44" t="n">
-        <v>22.55690342461459</v>
+        <v>9.760307994600153</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>96.23601616822083</v>
+        <v>96.51177654778198</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3547797125806</v>
+        <v>217.4077535386488</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7464778783334</v>
+        <v>255.7474459893752</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>397.1146492546669</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>386.2258430851794</v>
       </c>
     </row>
     <row r="45">
@@ -25955,19 +25955,19 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>79.44623782217568</v>
       </c>
       <c r="G45" t="n">
-        <v>74.72851086425395</v>
+        <v>77.89523868848713</v>
       </c>
       <c r="H45" t="n">
-        <v>33.01679750036618</v>
+        <v>51.29763783704193</v>
       </c>
       <c r="I45" t="n">
-        <v>10.44271547525859</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.888458418784962</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.50419080107098</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>77.41990205371728</v>
+        <v>77.54016887301827</v>
       </c>
       <c r="T45" t="n">
-        <v>139.7903633642173</v>
+        <v>139.8164614059971</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9095657031111</v>
+        <v>167.8519374181986</v>
       </c>
       <c r="V45" t="n">
-        <v>186.8767224284461</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>176.3378561248149</v>
+        <v>179.4981091356358</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -26037,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4548824832565</v>
+        <v>164.4603107493182</v>
       </c>
       <c r="H46" t="n">
-        <v>141.1178681715301</v>
+        <v>141.1661303916059</v>
       </c>
       <c r="I46" t="n">
-        <v>94.57521008439309</v>
+        <v>94.73845284923044</v>
       </c>
       <c r="J46" t="n">
-        <v>10.77286693432814</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.755254677277748</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.176308884163518</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7054336060544557</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.779019446119921</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.506790124936622</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.9368725197517</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>40.29501189884586</v>
+        <v>40.53908648012926</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0022870397414</v>
+        <v>166.0968869128348</v>
       </c>
       <c r="T46" t="n">
-        <v>240.3098339603297</v>
+        <v>240.3330274607752</v>
       </c>
       <c r="U46" t="n">
-        <v>276.7858701259253</v>
+        <v>277.3752900550955</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>59359.45902347661</v>
+        <v>61592.85700370339</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>45394.28864259158</v>
+        <v>61592.85700370339</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47932.7359333637</v>
+        <v>61592.85700370339</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50563.17363033179</v>
+        <v>64772.99672768037</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54108.76142836631</v>
+        <v>64772.9967276804</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59516.09332585085</v>
+        <v>67824.47795538575</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59222.41945993592</v>
+        <v>67824.47795538577</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>63934.82570061275</v>
+        <v>70951.60972183291</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64163.77688647818</v>
+        <v>70951.60972183289</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>64392.08272378927</v>
+        <v>70951.60972183292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>64632.35599096358</v>
+        <v>70951.60972183291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>64163.77688647818</v>
+        <v>70951.60972183289</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>63372.38623782718</v>
+        <v>70951.60972183289</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>64163.7768864782</v>
+        <v>70951.60972183289</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66302.37909062643</v>
+        <v>70951.60972183292</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12894.02848118148</v>
+        <v>13308.80239179503</v>
       </c>
       <c r="C2" t="n">
-        <v>10300.49683901713</v>
+        <v>13308.80239179504</v>
       </c>
       <c r="D2" t="n">
-        <v>10771.92276444624</v>
+        <v>13308.80239179503</v>
       </c>
       <c r="E2" t="n">
-        <v>11531.95188060198</v>
+        <v>14321.09555303386</v>
       </c>
       <c r="F2" t="n">
-        <v>12340.59471173267</v>
+        <v>14321.09555303386</v>
       </c>
       <c r="G2" t="n">
-        <v>13561.40702836708</v>
+        <v>15104.3927452807</v>
       </c>
       <c r="H2" t="n">
-        <v>13506.86759612573</v>
+        <v>15104.3927452807</v>
       </c>
       <c r="I2" t="n">
-        <v>14557.80429031249</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="J2" t="n">
-        <v>14600.32379625892</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="K2" t="n">
-        <v>14642.72345175955</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="L2" t="n">
-        <v>14687.34562994907</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="M2" t="n">
-        <v>14600.32379625892</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="N2" t="n">
-        <v>14453.35124722373</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="O2" t="n">
-        <v>14600.32379625892</v>
+        <v>15860.9213228248</v>
       </c>
       <c r="P2" t="n">
-        <v>15121.5952311955</v>
+        <v>15860.9213228248</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7813.80765460193</v>
+        <v>11935.87994777632</v>
       </c>
       <c r="F3" t="n">
-        <v>4035.497161536619</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5844.478988954183</v>
+        <v>5844.478988954168</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4099.399012973705</v>
+        <v>4099.399012973719</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>875.7640736439257</v>
+        <v>1567.650619059326</v>
       </c>
       <c r="N3" t="n">
-        <v>680.011941658071</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>989.1304778987806</v>
+        <v>989.1304778987771</v>
       </c>
       <c r="P3" t="n">
-        <v>2750.532011991159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2824.103375219308</v>
+        <v>3238.877285832858</v>
       </c>
       <c r="C4" t="n">
-        <v>230.5717330549499</v>
+        <v>3238.877285832857</v>
       </c>
       <c r="D4" t="n">
-        <v>701.9976584840588</v>
+        <v>3238.877285832858</v>
       </c>
       <c r="E4" t="n">
-        <v>2.143796340460254</v>
+        <v>1984.648802576027</v>
       </c>
       <c r="F4" t="n">
-        <v>4.147961274838982</v>
+        <v>1984.648802576027</v>
       </c>
       <c r="G4" t="n">
-        <v>62.0759583211614</v>
+        <v>1605.061675234787</v>
       </c>
       <c r="H4" t="n">
-        <v>7.536526079811589</v>
+        <v>1605.061675234787</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3642004661055</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="J4" t="n">
-        <v>157.8837064125434</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="K4" t="n">
-        <v>200.2833619131705</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="L4" t="n">
-        <v>244.9055401026887</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="M4" t="n">
-        <v>157.8837064125434</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="N4" t="n">
-        <v>10.91115737735348</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="O4" t="n">
-        <v>157.8837064125434</v>
+        <v>1418.481232978422</v>
       </c>
       <c r="P4" t="n">
-        <v>13.22273493796323</v>
+        <v>1418.481232978422</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>1530.185490606025</v>
+        <v>1788.346765386281</v>
       </c>
       <c r="F5" t="n">
         <v>1788.346765386281</v>
       </c>
       <c r="G5" t="n">
-        <v>2170.534841866133</v>
+        <v>2170.534841866132</v>
       </c>
       <c r="H5" t="n">
-        <v>2170.534841866133</v>
+        <v>2170.534841866132</v>
       </c>
       <c r="I5" t="n">
         <v>2536.546945698388</v>
@@ -26502,16 +26502,16 @@
         <v>2536.546945698388</v>
       </c>
       <c r="M5" t="n">
+        <v>2536.546945698388</v>
+      </c>
+      <c r="N5" t="n">
         <v>2536.546945698387</v>
       </c>
-      <c r="N5" t="n">
-        <v>2536.546945698388</v>
-      </c>
       <c r="O5" t="n">
-        <v>2536.546945698388</v>
+        <v>2536.546945698387</v>
       </c>
       <c r="P5" t="n">
-        <v>2794.313130654941</v>
+        <v>2536.546945698387</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74770.52268140724</v>
+        <v>-76124.25394842132</v>
       </c>
       <c r="C6" t="n">
-        <v>-24690.64156056714</v>
+        <v>-26044.37282758124</v>
       </c>
       <c r="D6" t="n">
-        <v>-24690.64156056714</v>
+        <v>-26044.37282758124</v>
       </c>
       <c r="E6" t="n">
-        <v>2185.814939053565</v>
+        <v>-2733.724359247802</v>
       </c>
       <c r="F6" t="n">
-        <v>6512.602823534929</v>
+        <v>9202.15558852852</v>
       </c>
       <c r="G6" t="n">
-        <v>5484.317239225606</v>
+        <v>4144.398205699867</v>
       </c>
       <c r="H6" t="n">
-        <v>11328.79622817978</v>
+        <v>9988.877194654035</v>
       </c>
       <c r="I6" t="n">
-        <v>7806.49413117429</v>
+        <v>6472.394548245014</v>
       </c>
       <c r="J6" t="n">
-        <v>11905.89314414799</v>
+        <v>10571.79356121874</v>
       </c>
       <c r="K6" t="n">
-        <v>11905.89314414799</v>
+        <v>10571.79356121873</v>
       </c>
       <c r="L6" t="n">
-        <v>11905.89314414799</v>
+        <v>10571.79356121874</v>
       </c>
       <c r="M6" t="n">
-        <v>11030.12907050406</v>
+        <v>9004.142942159406</v>
       </c>
       <c r="N6" t="n">
-        <v>11225.88120248992</v>
+        <v>10571.79356121873</v>
       </c>
       <c r="O6" t="n">
-        <v>10916.76266624921</v>
+        <v>9582.663083319956</v>
       </c>
       <c r="P6" t="n">
-        <v>9563.52735361144</v>
+        <v>10571.79356121873</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>60.39079609723841</v>
+        <v>64.4897407809798</v>
       </c>
       <c r="F3" t="n">
         <v>64.4897407809798</v>
       </c>
       <c r="G3" t="n">
-        <v>70.55791574490451</v>
+        <v>70.55791574490449</v>
       </c>
       <c r="H3" t="n">
-        <v>70.55791574490451</v>
+        <v>70.55791574490449</v>
       </c>
       <c r="I3" t="n">
         <v>74.35858929917691</v>
@@ -26779,7 +26779,7 @@
         <v>74.35858929917691</v>
       </c>
       <c r="P3" t="n">
-        <v>77.36880956975662</v>
+        <v>74.35858929917691</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F4" t="n">
         <v>6.290631848041471</v>
       </c>
       <c r="G4" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="H4" t="n">
         <v>10.40085984584235</v>
@@ -26822,16 +26822,16 @@
         <v>15.05805425947913</v>
       </c>
       <c r="M4" t="n">
+        <v>15.05805425947913</v>
+      </c>
+      <c r="N4" t="n">
         <v>15.05805425947912</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15.05805425947913</v>
       </c>
       <c r="O4" t="n">
         <v>15.05805425947913</v>
       </c>
       <c r="P4" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947912</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.419848091306498</v>
+        <v>12.51879277504788</v>
       </c>
       <c r="F3" t="n">
-        <v>4.098944683741379</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.068174963924704</v>
+        <v>6.06817496392469</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.800673554272407</v>
+        <v>3.800673554272421</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.010220270579708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="F4" t="n">
-        <v>2.77638619530746</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.110227997800884</v>
+        <v>4.110227997800868</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.657194413636773</v>
+        <v>4.657194413636786</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.514245652734008</v>
+        <v>6.290631848041468</v>
       </c>
       <c r="N4" t="n">
-        <v>2.776386195307463</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.110227997800884</v>
+        <v>4.11022799780087</v>
       </c>
       <c r="P4" t="n">
-        <v>3.160253010820984</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N4" t="n">
-        <v>2.77638619530746</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.110227997800884</v>
+        <v>4.110227997800868</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.208928434194701</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696482</v>
+        <v>2.139688326696483</v>
       </c>
       <c r="I5" t="n">
         <v>8.05471345929122</v>
@@ -31305,7 +31305,7 @@
         <v>35.20209071692246</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774077</v>
+        <v>30.04416999774078</v>
       </c>
       <c r="Q5" t="n">
         <v>22.56192044814304</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089856</v>
+        <v>0.1117865674089857</v>
       </c>
       <c r="H6" t="n">
         <v>1.079622901028888</v>
@@ -31387,7 +31387,7 @@
         <v>21.34633145549306</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136456</v>
+        <v>14.26945727136455</v>
       </c>
       <c r="R6" t="n">
         <v>6.940573018603515</v>
@@ -31439,7 +31439,7 @@
         <v>0.09371810296151657</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033026</v>
+        <v>0.8332391336033025</v>
       </c>
       <c r="I7" t="n">
         <v>2.818358950879063</v>
@@ -31466,13 +31466,13 @@
         <v>11.33477856181833</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.84761314889572</v>
+        <v>7.847613148895721</v>
       </c>
       <c r="R7" t="n">
         <v>4.213906702251462</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792974</v>
+        <v>1.633250939792975</v>
       </c>
       <c r="T7" t="n">
         <v>0.4004318944719343</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2427770697376417</v>
+        <v>0.2592552393205216</v>
       </c>
       <c r="H11" t="n">
-        <v>2.486340665450623</v>
+        <v>2.655097719691293</v>
       </c>
       <c r="I11" t="n">
-        <v>9.35966298106044</v>
+        <v>9.994937613904419</v>
       </c>
       <c r="J11" t="n">
-        <v>20.60540032264518</v>
+        <v>22.00396436828014</v>
       </c>
       <c r="K11" t="n">
-        <v>30.88215368463957</v>
+        <v>32.97823864871783</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>40.91242117907325</v>
       </c>
       <c r="M11" t="n">
-        <v>40.94550855216583</v>
+        <v>43.72189474747329</v>
       </c>
       <c r="N11" t="n">
-        <v>40.79386848718003</v>
+        <v>43.57025468248749</v>
       </c>
       <c r="O11" t="n">
-        <v>40.90520500875811</v>
+        <v>43.68159120406557</v>
       </c>
       <c r="P11" t="n">
-        <v>34.91164609961007</v>
+        <v>37.28122748334019</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.21719228963077</v>
+        <v>27.996649225174</v>
       </c>
       <c r="R11" t="n">
-        <v>15.25034510690715</v>
+        <v>16.28544192696773</v>
       </c>
       <c r="S11" t="n">
-        <v>5.532282476646516</v>
+        <v>5.907778766016392</v>
       </c>
       <c r="T11" t="n">
-        <v>1.062756622776527</v>
+        <v>1.134889810125584</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01942216557901133</v>
+        <v>0.02074041914564172</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1298971840582109</v>
+        <v>0.1387137820572018</v>
       </c>
       <c r="H12" t="n">
-        <v>1.254533330246406</v>
+        <v>1.339683105657713</v>
       </c>
       <c r="I12" t="n">
-        <v>4.472337258144544</v>
+        <v>4.775891180478222</v>
       </c>
       <c r="J12" t="n">
-        <v>12.27243527104352</v>
+        <v>13.10541043550081</v>
       </c>
       <c r="K12" t="n">
-        <v>20.97554660294365</v>
+        <v>22.39923383333333</v>
       </c>
       <c r="L12" t="n">
-        <v>22.85351893824599</v>
+        <v>28.80571856227103</v>
       </c>
       <c r="M12" t="n">
-        <v>26.61102616506199</v>
+        <v>24.41583818672687</v>
       </c>
       <c r="N12" t="n">
-        <v>24.85727386627568</v>
+        <v>27.63366006158314</v>
       </c>
       <c r="O12" t="n">
-        <v>26.68613537495623</v>
+        <v>29.46252157026369</v>
       </c>
       <c r="P12" t="n">
-        <v>24.80466491020346</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.58126160013233</v>
+        <v>17.70669260084562</v>
       </c>
       <c r="R12" t="n">
-        <v>8.065019901438749</v>
+        <v>8.612422363165571</v>
       </c>
       <c r="S12" t="n">
-        <v>2.412783221432118</v>
+        <v>2.576547662334427</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5235768076732272</v>
+        <v>0.5591138846954756</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008545867372250722</v>
+        <v>0.009125906714289598</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.108901435585184</v>
+        <v>0.116292975178816</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9682327636573641</v>
+        <v>1.033950270226201</v>
       </c>
       <c r="I13" t="n">
-        <v>3.274963171961716</v>
+        <v>3.497246926286577</v>
       </c>
       <c r="J13" t="n">
-        <v>7.699331495872509</v>
+        <v>8.221913345142292</v>
       </c>
       <c r="K13" t="n">
-        <v>12.65236678889683</v>
+        <v>13.51112929804789</v>
       </c>
       <c r="L13" t="n">
-        <v>16.19067343236454</v>
+        <v>17.28959378249416</v>
       </c>
       <c r="M13" t="n">
-        <v>17.07079503450298</v>
+        <v>18.22945246371204</v>
       </c>
       <c r="N13" t="n">
-        <v>16.66488968368549</v>
+        <v>17.79599682895465</v>
       </c>
       <c r="O13" t="n">
-        <v>15.39272291344038</v>
+        <v>16.43748343709302</v>
       </c>
       <c r="P13" t="n">
-        <v>13.17113362750261</v>
+        <v>14.06510674344516</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.119010210683001</v>
+        <v>9.737950857927949</v>
       </c>
       <c r="R13" t="n">
-        <v>4.896604549130181</v>
+        <v>5.228955047585671</v>
       </c>
       <c r="S13" t="n">
-        <v>1.897855018334525</v>
+        <v>2.026669394707184</v>
       </c>
       <c r="T13" t="n">
-        <v>0.465306133863968</v>
+        <v>0.4968881666731229</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005940078304646408</v>
+        <v>0.006343253191571791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,10 +32083,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>28.80571856227103</v>
+        <v>23.83414438862845</v>
       </c>
       <c r="M15" t="n">
-        <v>24.41583818672687</v>
+        <v>29.38741236036945</v>
       </c>
       <c r="N15" t="n">
         <v>27.63366006158314</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2836499125423295</v>
+        <v>0.2836499125423294</v>
       </c>
       <c r="H17" t="n">
         <v>2.904929666824132</v>
       </c>
       <c r="I17" t="n">
-        <v>10.93541325328817</v>
+        <v>10.93541325328816</v>
       </c>
       <c r="J17" t="n">
-        <v>24.07443176463956</v>
+        <v>24.07443176463955</v>
       </c>
       <c r="K17" t="n">
-        <v>36.08133256255637</v>
+        <v>36.08133256255636</v>
       </c>
       <c r="L17" t="n">
-        <v>44.7620835735237</v>
+        <v>44.76208357352368</v>
       </c>
       <c r="M17" t="n">
-        <v>47.83212274527417</v>
+        <v>47.83212274527416</v>
       </c>
       <c r="N17" t="n">
-        <v>47.68048268028838</v>
+        <v>47.68048268028836</v>
       </c>
       <c r="O17" t="n">
-        <v>47.79181920186645</v>
+        <v>47.79181920186644</v>
       </c>
       <c r="P17" t="n">
-        <v>40.78921198597769</v>
+        <v>40.78921198597768</v>
       </c>
       <c r="Q17" t="n">
-        <v>30.6309994930555</v>
+        <v>30.63099949305549</v>
       </c>
       <c r="R17" t="n">
-        <v>17.81782381873712</v>
+        <v>17.81782381873711</v>
       </c>
       <c r="S17" t="n">
-        <v>6.463672382058339</v>
+        <v>6.463672382058338</v>
       </c>
       <c r="T17" t="n">
         <v>1.241677492154048</v>
@@ -32311,7 +32311,7 @@
         <v>1.465740853493205</v>
       </c>
       <c r="I18" t="n">
-        <v>5.225279609410381</v>
+        <v>5.22527960941038</v>
       </c>
       <c r="J18" t="n">
         <v>14.33856663265083</v>
@@ -32320,34 +32320,34 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>32.91594656007192</v>
+        <v>25.28588557230472</v>
       </c>
       <c r="M18" t="n">
-        <v>25.86757937040316</v>
+        <v>33.49764035817032</v>
       </c>
       <c r="N18" t="n">
-        <v>31.74388805938402</v>
+        <v>31.74388805938401</v>
       </c>
       <c r="O18" t="n">
-        <v>33.57274956806458</v>
+        <v>33.57274956806456</v>
       </c>
       <c r="P18" t="n">
-        <v>28.98066543114767</v>
+        <v>28.98066543114766</v>
       </c>
       <c r="Q18" t="n">
         <v>19.37280735697831</v>
       </c>
       <c r="R18" t="n">
-        <v>9.422809955517629</v>
+        <v>9.422809955517627</v>
       </c>
       <c r="S18" t="n">
-        <v>2.818988426223306</v>
+        <v>2.818988426223305</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6117238166940303</v>
+        <v>0.6117238166940302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009984610718618567</v>
+        <v>0.009984610718618564</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,10 +32390,10 @@
         <v>1.131240026205191</v>
       </c>
       <c r="I19" t="n">
-        <v>3.826321070231872</v>
+        <v>3.826321070231871</v>
       </c>
       <c r="J19" t="n">
-        <v>8.995555913903644</v>
+        <v>8.995555913903642</v>
       </c>
       <c r="K19" t="n">
         <v>14.78246169212917</v>
@@ -32402,7 +32402,7 @@
         <v>18.91646154249456</v>
       </c>
       <c r="M19" t="n">
-        <v>19.94475641294079</v>
+        <v>19.94475641294078</v>
       </c>
       <c r="N19" t="n">
         <v>19.47051468416358</v>
@@ -32417,16 +32417,16 @@
         <v>10.65424527748058</v>
       </c>
       <c r="R19" t="n">
-        <v>5.720974611054058</v>
+        <v>5.720974611054057</v>
       </c>
       <c r="S19" t="n">
         <v>2.217369253819375</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5436429573787722</v>
+        <v>0.5436429573787721</v>
       </c>
       <c r="U19" t="n">
-        <v>0.006940122860154549</v>
+        <v>0.006940122860154547</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2836499125423295</v>
+        <v>0.2836499125423294</v>
       </c>
       <c r="H20" t="n">
         <v>2.904929666824132</v>
       </c>
       <c r="I20" t="n">
-        <v>10.93541325328817</v>
+        <v>10.93541325328816</v>
       </c>
       <c r="J20" t="n">
-        <v>24.07443176463956</v>
+        <v>24.07443176463955</v>
       </c>
       <c r="K20" t="n">
-        <v>36.08133256255637</v>
+        <v>36.08133256255636</v>
       </c>
       <c r="L20" t="n">
-        <v>44.7620835735237</v>
+        <v>44.76208357352368</v>
       </c>
       <c r="M20" t="n">
-        <v>47.83212274527417</v>
+        <v>47.83212274527416</v>
       </c>
       <c r="N20" t="n">
-        <v>47.68048268028838</v>
+        <v>47.68048268028837</v>
       </c>
       <c r="O20" t="n">
-        <v>47.79181920186645</v>
+        <v>47.79181920186644</v>
       </c>
       <c r="P20" t="n">
-        <v>40.78921198597769</v>
+        <v>40.78921198597768</v>
       </c>
       <c r="Q20" t="n">
-        <v>30.6309994930555</v>
+        <v>30.63099949305549</v>
       </c>
       <c r="R20" t="n">
-        <v>17.81782381873712</v>
+        <v>17.81782381873711</v>
       </c>
       <c r="S20" t="n">
-        <v>6.463672382058339</v>
+        <v>6.463672382058338</v>
       </c>
       <c r="T20" t="n">
         <v>1.241677492154048</v>
@@ -32548,43 +32548,43 @@
         <v>1.465740853493205</v>
       </c>
       <c r="I21" t="n">
-        <v>5.225279609410381</v>
+        <v>5.22527960941038</v>
       </c>
       <c r="J21" t="n">
         <v>14.33856663265083</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>24.50689418849197</v>
       </c>
       <c r="L21" t="n">
-        <v>32.91594656007192</v>
+        <v>32.9159465600719</v>
       </c>
       <c r="M21" t="n">
-        <v>33.49764035817033</v>
+        <v>33.49764035817032</v>
       </c>
       <c r="N21" t="n">
-        <v>31.74388805938402</v>
+        <v>31.74388805938401</v>
       </c>
       <c r="O21" t="n">
-        <v>25.9426885802974</v>
+        <v>23.83502822513877</v>
       </c>
       <c r="P21" t="n">
-        <v>28.98066543114767</v>
+        <v>28.98066543114766</v>
       </c>
       <c r="Q21" t="n">
         <v>19.37280735697831</v>
       </c>
       <c r="R21" t="n">
-        <v>9.422809955517629</v>
+        <v>9.422809955517627</v>
       </c>
       <c r="S21" t="n">
-        <v>2.818988426223306</v>
+        <v>2.818988426223305</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6117238166940303</v>
+        <v>0.6117238166940302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009984610718618567</v>
+        <v>0.009984610718618564</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,10 +32627,10 @@
         <v>1.131240026205191</v>
       </c>
       <c r="I22" t="n">
-        <v>3.826321070231872</v>
+        <v>3.826321070231871</v>
       </c>
       <c r="J22" t="n">
-        <v>8.995555913903644</v>
+        <v>8.995555913903642</v>
       </c>
       <c r="K22" t="n">
         <v>14.78246169212917</v>
@@ -32639,7 +32639,7 @@
         <v>18.91646154249456</v>
       </c>
       <c r="M22" t="n">
-        <v>19.94475641294079</v>
+        <v>19.94475641294078</v>
       </c>
       <c r="N22" t="n">
         <v>19.47051468416358</v>
@@ -32654,16 +32654,16 @@
         <v>10.65424527748058</v>
       </c>
       <c r="R22" t="n">
-        <v>5.720974611054058</v>
+        <v>5.720974611054057</v>
       </c>
       <c r="S22" t="n">
         <v>2.217369253819375</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5436429573787722</v>
+        <v>0.5436429573787721</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006940122860154549</v>
+        <v>0.006940122860154547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32718,7 +32718,7 @@
         <v>47.17323851589894</v>
       </c>
       <c r="M23" t="n">
-        <v>52.48931715891094</v>
+        <v>52.48931715891095</v>
       </c>
       <c r="N23" t="n">
         <v>52.33767709392515</v>
@@ -32791,16 +32791,16 @@
         <v>15.11092803861859</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L24" t="n">
         <v>34.72756569109202</v>
       </c>
       <c r="M24" t="n">
-        <v>38.1548347718071</v>
+        <v>28.36924136188457</v>
       </c>
       <c r="N24" t="n">
-        <v>30.04323808097054</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O24" t="n">
         <v>38.05406031804198</v>
@@ -32955,7 +32955,7 @@
         <v>47.17323851589894</v>
       </c>
       <c r="M26" t="n">
-        <v>52.48931715891094</v>
+        <v>52.48931715891095</v>
       </c>
       <c r="N26" t="n">
         <v>52.33767709392515</v>
@@ -33034,10 +33034,10 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M27" t="n">
-        <v>38.1548347718071</v>
+        <v>38.15483477180711</v>
       </c>
       <c r="N27" t="n">
-        <v>26.61548906309825</v>
+        <v>26.61548906309826</v>
       </c>
       <c r="O27" t="n">
         <v>38.05406031804198</v>
@@ -33192,7 +33192,7 @@
         <v>47.17323851589894</v>
       </c>
       <c r="M29" t="n">
-        <v>52.48931715891094</v>
+        <v>52.48931715891095</v>
       </c>
       <c r="N29" t="n">
         <v>52.33767709392515</v>
@@ -33271,16 +33271,16 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M30" t="n">
-        <v>37.14013846750463</v>
+        <v>38.15483477180711</v>
       </c>
       <c r="N30" t="n">
-        <v>36.40108247302079</v>
+        <v>26.61548906309826</v>
       </c>
       <c r="O30" t="n">
         <v>38.05406031804198</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q30" t="n">
         <v>20.41634323550231</v>
@@ -33508,10 +33508,10 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M33" t="n">
-        <v>38.1548347718071</v>
+        <v>38.15483477180711</v>
       </c>
       <c r="N33" t="n">
-        <v>26.61548906309825</v>
+        <v>26.61548906309826</v>
       </c>
       <c r="O33" t="n">
         <v>38.05406031804198</v>
@@ -33748,10 +33748,10 @@
         <v>38.1548347718071</v>
       </c>
       <c r="N36" t="n">
-        <v>36.40108247302079</v>
+        <v>26.61548906309825</v>
       </c>
       <c r="O36" t="n">
-        <v>28.26846690811943</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P36" t="n">
         <v>30.54173831044873</v>
@@ -33979,13 +33979,13 @@
         <v>25.82698285120563</v>
       </c>
       <c r="L39" t="n">
-        <v>24.94197228116948</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M39" t="n">
         <v>38.1548347718071</v>
       </c>
       <c r="N39" t="n">
-        <v>36.40108247302079</v>
+        <v>26.61548906309824</v>
       </c>
       <c r="O39" t="n">
         <v>38.05406031804198</v>
@@ -34219,10 +34219,10 @@
         <v>34.72756569109202</v>
       </c>
       <c r="M42" t="n">
-        <v>38.1548347718071</v>
+        <v>28.36924136188455</v>
       </c>
       <c r="N42" t="n">
-        <v>26.61548906309825</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O42" t="n">
         <v>38.05406031804198</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.2989290022077462</v>
       </c>
       <c r="H44" t="n">
-        <v>3.185339983944802</v>
+        <v>3.061406643860081</v>
       </c>
       <c r="I44" t="n">
-        <v>11.99099911934892</v>
+        <v>11.52446035761414</v>
       </c>
       <c r="J44" t="n">
-        <v>26.39831558279852</v>
+        <v>25.37122540112972</v>
       </c>
       <c r="K44" t="n">
-        <v>39.56423200124193</v>
+        <v>38.02489006458362</v>
       </c>
       <c r="L44" t="n">
-        <v>49.08292830624872</v>
+        <v>47.17323851589894</v>
       </c>
       <c r="M44" t="n">
-        <v>54.61421500850463</v>
+        <v>52.48931715891094</v>
       </c>
       <c r="N44" t="n">
-        <v>55.49793010474612</v>
+        <v>52.33767709392514</v>
       </c>
       <c r="O44" t="n">
-        <v>52.4051216618948</v>
+        <v>50.36617392073043</v>
       </c>
       <c r="P44" t="n">
-        <v>44.72655890308729</v>
+        <v>42.98636417872669</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.58778305296907</v>
+        <v>32.28096928716177</v>
       </c>
       <c r="R44" t="n">
-        <v>19.53776275029638</v>
+        <v>18.77759893493235</v>
       </c>
       <c r="S44" t="n">
-        <v>7.087605017370168</v>
+        <v>6.811844637809022</v>
       </c>
       <c r="T44" t="n">
-        <v>1.361535533232601</v>
+        <v>1.30856170716441</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02488243121841417</v>
+        <v>0.02391432017661969</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1664159300179671</v>
+        <v>0.1599411166057768</v>
       </c>
       <c r="H45" t="n">
-        <v>1.607227534647209</v>
+        <v>1.544694468271581</v>
       </c>
       <c r="I45" t="n">
-        <v>5.729671274741411</v>
+        <v>5.506744584891876</v>
       </c>
       <c r="J45" t="n">
-        <v>15.72265591454837</v>
+        <v>15.11092803861859</v>
       </c>
       <c r="K45" t="n">
-        <v>26.87252322575217</v>
+        <v>25.82698285120563</v>
       </c>
       <c r="L45" t="n">
-        <v>36.13342375236606</v>
+        <v>34.72756569109202</v>
       </c>
       <c r="M45" t="n">
-        <v>32.49398676858095</v>
+        <v>28.36924136188454</v>
       </c>
       <c r="N45" t="n">
-        <v>39.56133548384177</v>
+        <v>36.40108247302079</v>
       </c>
       <c r="O45" t="n">
-        <v>39.59458313896781</v>
+        <v>38.05406031804198</v>
       </c>
       <c r="P45" t="n">
-        <v>31.77814368913268</v>
+        <v>30.54173831044873</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.24284748790752</v>
+        <v>20.41634323550231</v>
       </c>
       <c r="R45" t="n">
-        <v>10.33238554971203</v>
+        <v>9.930379152067442</v>
       </c>
       <c r="S45" t="n">
-        <v>3.091102910640746</v>
+        <v>2.970836091339755</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6707729810811917</v>
+        <v>0.6446749393013543</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01094841644855047</v>
+        <v>0.010522441881959</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1395175254536595</v>
+        <v>0.1340892593919583</v>
       </c>
       <c r="H46" t="n">
-        <v>1.240437635397082</v>
+        <v>1.192175415321231</v>
       </c>
       <c r="I46" t="n">
-        <v>4.195672492733688</v>
+        <v>4.032429727896349</v>
       </c>
       <c r="J46" t="n">
-        <v>9.863889049573723</v>
+        <v>9.480110639011455</v>
       </c>
       <c r="K46" t="n">
-        <v>16.20939977543425</v>
+        <v>15.57873395481116</v>
       </c>
       <c r="L46" t="n">
-        <v>20.7424510115377</v>
+        <v>19.93541589178261</v>
       </c>
       <c r="M46" t="n">
-        <v>21.87000628543136</v>
+        <v>21.01910090632307</v>
       </c>
       <c r="N46" t="n">
-        <v>21.34998641783138</v>
+        <v>20.51931366677124</v>
       </c>
       <c r="O46" t="n">
-        <v>19.72016805230453</v>
+        <v>18.95290731841972</v>
       </c>
       <c r="P46" t="n">
-        <v>16.87401053304986</v>
+        <v>16.21748642682376</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.68269024503325</v>
+        <v>11.22814698417571</v>
       </c>
       <c r="R46" t="n">
-        <v>6.273215280852723</v>
+        <v>6.029140699569326</v>
       </c>
       <c r="S46" t="n">
-        <v>2.431409966315137</v>
+        <v>2.336810093221673</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5961203360292721</v>
+        <v>0.572926835583822</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007610046842926889</v>
+        <v>0.007313959603197737</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.600378746450325</v>
       </c>
       <c r="M11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="N11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O11" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3384322240164293</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="M12" t="n">
-        <v>3.514245652734012</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="N12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="O12" t="n">
-        <v>3.514245652734012</v>
+        <v>6.290631848041471</v>
       </c>
       <c r="P12" t="n">
-        <v>3.033823705374793</v>
+        <v>4.717407230287364</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>1.319057674398896</v>
+      </c>
+      <c r="M15" t="n">
         <v>6.290631848041471</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.319057674398896</v>
       </c>
       <c r="N15" t="n">
         <v>6.290631848041471</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3167317677470294</v>
+        <v>0.3167317677470223</v>
       </c>
       <c r="L17" t="n">
-        <v>6.450041140900773</v>
+        <v>6.450041140900758</v>
       </c>
       <c r="M17" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="N17" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="O17" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="P17" t="n">
-        <v>3.213850175746387</v>
+        <v>3.21385017574638</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>10.40085984584235</v>
+        <v>2.770798858075167</v>
       </c>
       <c r="M18" t="n">
-        <v>2.770798858075179</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="N18" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="O18" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="P18" t="n">
-        <v>7.209824226319004</v>
+        <v>7.209824226318997</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3167317677470294</v>
+        <v>0.3167317677470223</v>
       </c>
       <c r="L20" t="n">
-        <v>6.450041140900773</v>
+        <v>6.450041140900758</v>
       </c>
       <c r="M20" t="n">
         <v>10.40085984584235</v>
@@ -36135,10 +36135,10 @@
         <v>10.40085984584235</v>
       </c>
       <c r="O20" t="n">
-        <v>10.40085984584235</v>
+        <v>10.40085984584234</v>
       </c>
       <c r="P20" t="n">
-        <v>3.213850175746387</v>
+        <v>3.21385017574638</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2.107660355158632</v>
       </c>
       <c r="L21" t="n">
         <v>10.40085984584235</v>
@@ -36214,10 +36214,10 @@
         <v>10.40085984584235</v>
       </c>
       <c r="O21" t="n">
-        <v>2.770798858075179</v>
+        <v>0.6631385029165449</v>
       </c>
       <c r="P21" t="n">
-        <v>7.209824226319004</v>
+        <v>7.209824226318997</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L24" t="n">
         <v>12.21247897686246</v>
       </c>
       <c r="M24" t="n">
+        <v>5.272460849556595</v>
+      </c>
+      <c r="N24" t="n">
         <v>15.05805425947913</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.700209867428876</v>
       </c>
       <c r="O24" t="n">
         <v>14.88217059581976</v>
@@ -36685,7 +36685,7 @@
         <v>15.05805425947913</v>
       </c>
       <c r="N27" t="n">
-        <v>5.272460849556587</v>
+        <v>5.272460849556595</v>
       </c>
       <c r="O27" t="n">
         <v>14.88217059581976</v>
@@ -36919,16 +36919,16 @@
         <v>12.21247897686246</v>
       </c>
       <c r="M30" t="n">
-        <v>14.04335795517665</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N30" t="n">
-        <v>15.05805425947913</v>
+        <v>5.272460849556595</v>
       </c>
       <c r="O30" t="n">
         <v>14.88217059581976</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>15.05805425947913</v>
       </c>
       <c r="N33" t="n">
-        <v>5.272460849556587</v>
+        <v>5.272460849556595</v>
       </c>
       <c r="O33" t="n">
         <v>14.88217059581976</v>
@@ -37314,10 +37314,10 @@
         <v>8.86119608327602</v>
       </c>
       <c r="M35" t="n">
-        <v>15.05805425947912</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N35" t="n">
-        <v>15.05805425947912</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="O35" t="n">
         <v>12.97521456470633</v>
@@ -37393,13 +37393,13 @@
         <v>12.21247897686246</v>
       </c>
       <c r="M36" t="n">
-        <v>15.05805425947912</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N36" t="n">
-        <v>15.05805425947912</v>
+        <v>5.272460849556587</v>
       </c>
       <c r="O36" t="n">
-        <v>5.096577185897206</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P36" t="n">
         <v>8.770897105620062</v>
@@ -37551,10 +37551,10 @@
         <v>8.86119608327602</v>
       </c>
       <c r="M38" t="n">
-        <v>15.05805425947913</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N38" t="n">
-        <v>15.05805425947913</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O38" t="n">
         <v>12.97521456470633</v>
@@ -37627,13 +37627,13 @@
         <v>3.427749017872291</v>
       </c>
       <c r="L39" t="n">
-        <v>2.426885566939918</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M39" t="n">
-        <v>15.05805425947913</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="N39" t="n">
-        <v>15.05805425947913</v>
+        <v>5.272460849556576</v>
       </c>
       <c r="O39" t="n">
         <v>14.88217059581976</v>
@@ -37867,10 +37867,10 @@
         <v>12.21247897686246</v>
       </c>
       <c r="M42" t="n">
+        <v>5.272460849556576</v>
+      </c>
+      <c r="N42" t="n">
         <v>15.05805425947913</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.272460849556587</v>
       </c>
       <c r="O42" t="n">
         <v>14.88217059581976</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3.799631206432586</v>
+        <v>2.260289269774283</v>
       </c>
       <c r="L44" t="n">
-        <v>10.77088587362579</v>
+        <v>8.86119608327602</v>
       </c>
       <c r="M44" t="n">
-        <v>17.18295210907282</v>
+        <v>15.05805425947913</v>
       </c>
       <c r="N44" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O44" t="n">
-        <v>15.0141623058707</v>
+        <v>12.97521456470633</v>
       </c>
       <c r="P44" t="n">
-        <v>7.151197092855995</v>
+        <v>5.411002368495389</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>4.473289392418831</v>
+        <v>3.427749017872291</v>
       </c>
       <c r="L45" t="n">
-        <v>13.6183370381365</v>
+        <v>12.21247897686246</v>
       </c>
       <c r="M45" t="n">
-        <v>9.397206256252977</v>
+        <v>5.272460849556562</v>
       </c>
       <c r="N45" t="n">
-        <v>18.21830727030011</v>
+        <v>15.05805425947912</v>
       </c>
       <c r="O45" t="n">
-        <v>16.42269341674558</v>
+        <v>14.88217059581976</v>
       </c>
       <c r="P45" t="n">
-        <v>10.00730248430402</v>
+        <v>8.770897105620062</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6010854422309855</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
